--- a/Archivos/DatosVuelo/DatosExperimentalesLimpios.xlsx
+++ b/Archivos/DatosVuelo/DatosExperimentalesLimpios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/165ebec0c7ffc16d/Archivos/Tesis/GithubCode/SimuladorVueloNat/3DOF-Rocket-PU/Archivos/DatosVuelo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{7B0F9DF2-5998-43A7-9A84-CD62FE60A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9DB7136-ECBC-45E8-A4DB-2DAAA685AE4D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{7B0F9DF2-5998-43A7-9A84-CD62FE60A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90602B23-FFD4-49E9-9003-3C5CBDAAD16C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{E2D41051-695D-4D8F-B592-B5ED3C0D8448}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2D41051-695D-4D8F-B592-B5ED3C0D8448}"/>
   </bookViews>
   <sheets>
     <sheet name="FTW" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>TIME</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>TIME-FTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplazamiento </t>
+  </si>
+  <si>
+    <t>Impacto</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -177,6 +183,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,6 +199,1106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FTW!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desplazamiento </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>FTW!$I$2:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>531.13533600000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531.12619200000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531.10790400000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531.07132799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>531.02560800000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>530.99512800000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530.94940800000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>529.94052000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>530.16302400000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>525.02714400000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>517.98626400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>509.10744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>497.02212000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>485.45800800000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>469.56268799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>460.15656000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>451.15886400000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>448.54063200000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>451.91781600000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>465.65210400000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>489.06988799999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>522.86306400000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>566.77864799999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>614.22076800000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>669.62426400000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>731.96195999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>794.65627199999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>859.80117600000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>923.22396000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>992.43489600000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1064.55972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1125.5532480000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1261.1435280000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1327.2028320000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1393.6126560000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1460.2206000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1526.8407359999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1591.0011360000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1655.2834560000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1719.5962560000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1784.0462160000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1848.468744</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1913.058912</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1977.6612720000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039.7795120000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2166.4940160000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2228.502528</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2293.1018400000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2355.2078880000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2417.1706800000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2479.2035759999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2543.1567120000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2605.1164559999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2664.5402640000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2724.375552</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2786.0701199999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2904.1648800000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2962.8327840000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2992.1514960000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3137.2362960000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3190.8658559999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3248.6925120000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3303.7820640000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3360.569352</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3411.0289920000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3519.7481040000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3571.3934160000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3622.7339280000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3673.7970719999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3772.8936480000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3820.7015280000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3869.9694000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3961.8787920000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4006.4253120000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4049.1186480000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4092.9854640000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4134.0603120000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4177.1529360000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4215.2224560000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4255.303656</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4295.1714959999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-344B-4E4A-BC47-8F5976EE6958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1723123903"/>
+        <c:axId val="1723118623"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1723123903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723118623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1723118623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723123903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407E29F6-ED80-90CB-3DC3-89A9B824A34E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F5712C-5533-4BDB-B6DE-6DA0CDCE3835}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,6 +1661,9 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
@@ -584,6 +1694,10 @@
         <f>G2*$K$2</f>
         <v>3.508248</v>
       </c>
+      <c r="I2">
+        <f>F2*$K$2</f>
+        <v>531.13533600000005</v>
+      </c>
       <c r="K2" s="6">
         <v>0.30480000000000002</v>
       </c>
@@ -614,6 +1728,10 @@
         <f t="shared" ref="H3:H66" si="0">G3*$K$2</f>
         <v>3.2180784</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">F3*$K$2</f>
+        <v>531.12619200000006</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -641,6 +1759,10 @@
         <f t="shared" si="0"/>
         <v>3.0562296</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>531.10790400000008</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -668,6 +1790,10 @@
         <f t="shared" si="0"/>
         <v>3.0102047999999999</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>531.07132799999999</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -695,6 +1821,10 @@
         <f t="shared" si="0"/>
         <v>2.9730192</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>531.02560800000003</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -722,6 +1852,10 @@
         <f t="shared" si="0"/>
         <v>3.0281880000000001</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>530.99512800000002</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -749,6 +1883,10 @@
         <f t="shared" si="0"/>
         <v>3.30708</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>530.94940800000006</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -776,6 +1914,10 @@
         <f t="shared" si="0"/>
         <v>11.3230152</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>529.94052000000011</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -803,6 +1945,10 @@
         <f t="shared" si="0"/>
         <v>46.316188799999999</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>530.16302400000006</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -830,6 +1976,10 @@
         <f t="shared" si="0"/>
         <v>107.0500272</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>525.02714400000002</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -857,6 +2007,10 @@
         <f t="shared" si="0"/>
         <v>193.61627520000002</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>517.98626400000001</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -884,6 +2038,10 @@
         <f t="shared" si="0"/>
         <v>311.89513440000002</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>509.10744</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -911,6 +2069,10 @@
         <f t="shared" si="0"/>
         <v>458.49600960000004</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>497.02212000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -938,6 +2100,10 @@
         <f t="shared" si="0"/>
         <v>630.46325520000005</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>485.45800800000006</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -965,8 +2131,12 @@
         <f t="shared" si="0"/>
         <v>820.40303280000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>469.56268799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>1.4356481481481482E-2</v>
       </c>
@@ -992,8 +2162,12 @@
         <f t="shared" si="0"/>
         <v>1028.680188</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>460.15656000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>1.4369212962962962E-2</v>
       </c>
@@ -1019,8 +2193,12 @@
         <f t="shared" si="0"/>
         <v>1255.8421415999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>451.15886400000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>1.4379629629629631E-2</v>
       </c>
@@ -1046,8 +2224,12 @@
         <f t="shared" si="0"/>
         <v>1495.1372687999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>448.54063200000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1.4391203703703705E-2</v>
       </c>
@@ -1073,8 +2255,12 @@
         <f t="shared" si="0"/>
         <v>1749.5553528000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>451.91781600000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1.4402777777777778E-2</v>
       </c>
@@ -1100,8 +2286,12 @@
         <f t="shared" si="0"/>
         <v>2017.0011984</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>465.65210400000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1.441550925925926E-2</v>
       </c>
@@ -1127,8 +2317,12 @@
         <f t="shared" si="0"/>
         <v>2293.4322431999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>489.06988799999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1.4425925925925927E-2</v>
       </c>
@@ -1154,8 +2348,12 @@
         <f t="shared" si="0"/>
         <v>2577.4192800000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>522.86306400000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>1.4437500000000001E-2</v>
       </c>
@@ -1181,8 +2379,12 @@
         <f t="shared" si="0"/>
         <v>2860.2492960000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>566.77864799999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>1.4449074074074076E-2</v>
       </c>
@@ -1208,8 +2410,12 @@
         <f t="shared" si="0"/>
         <v>3138.6703800000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>614.22076800000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>1.446064814814815E-2</v>
       </c>
@@ -1235,8 +2441,12 @@
         <f t="shared" si="0"/>
         <v>3409.3120536000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>669.62426400000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1.4472222222222223E-2</v>
       </c>
@@ -1262,8 +2472,12 @@
         <f t="shared" si="0"/>
         <v>3672.6263352000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>731.96195999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1.4484953703703703E-2</v>
       </c>
@@ -1289,8 +2503,12 @@
         <f t="shared" si="0"/>
         <v>3926.4930360000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>794.65627199999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>1.4495370370370372E-2</v>
       </c>
@@ -1316,8 +2534,12 @@
         <f t="shared" si="0"/>
         <v>4169.0342831999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>859.80117600000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>1.4506944444444446E-2</v>
       </c>
@@ -1343,8 +2565,12 @@
         <f t="shared" si="0"/>
         <v>4399.1844960000008</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>923.22396000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>1.4519675925925925E-2</v>
       </c>
@@ -1370,8 +2596,12 @@
         <f t="shared" si="0"/>
         <v>4614.9530256000007</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>992.43489600000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>1.4530092592592594E-2</v>
       </c>
@@ -1397,8 +2627,12 @@
         <f t="shared" si="0"/>
         <v>4838.4052584000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1064.55972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>1.4542824074074074E-2</v>
       </c>
@@ -1424,8 +2658,12 @@
         <f t="shared" si="0"/>
         <v>5009.6507376000009</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1125.5532480000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>1.4564814814814815E-2</v>
       </c>
@@ -1451,8 +2689,12 @@
         <f t="shared" si="0"/>
         <v>5356.9782623999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>1261.1435280000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>1.4577546296296297E-2</v>
       </c>
@@ -1478,8 +2720,12 @@
         <f t="shared" si="0"/>
         <v>5512.4655816000004</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>1327.2028320000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>1.4587962962962964E-2</v>
       </c>
@@ -1505,8 +2751,12 @@
         <f t="shared" si="0"/>
         <v>5657.5080144000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>1393.6126560000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>1.4599537037037038E-2</v>
       </c>
@@ -1532,8 +2782,12 @@
         <f t="shared" si="0"/>
         <v>5791.4420112000007</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>1460.2206000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>1.4611111111111113E-2</v>
       </c>
@@ -1559,8 +2813,12 @@
         <f t="shared" si="0"/>
         <v>5913.3513432</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>1526.8407359999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>1.4622685185185186E-2</v>
       </c>
@@ -1586,8 +2844,12 @@
         <f t="shared" si="0"/>
         <v>6024.1534584000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>1591.0011360000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>1.463425925925926E-2</v>
       </c>
@@ -1613,8 +2875,12 @@
         <f t="shared" si="0"/>
         <v>6124.1854656000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>1655.2834560000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>1.4645833333333334E-2</v>
       </c>
@@ -1640,8 +2906,12 @@
         <f t="shared" si="0"/>
         <v>6214.5534840000009</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1719.5962560000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1.4657407407407409E-2</v>
       </c>
@@ -1667,8 +2937,12 @@
         <f t="shared" si="0"/>
         <v>6294.3793847999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>1784.0462160000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>1.4670138888888889E-2</v>
       </c>
@@ -1694,8 +2968,12 @@
         <f t="shared" si="0"/>
         <v>6363.4702295999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>1848.468744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>1.4680555555555556E-2</v>
       </c>
@@ -1721,8 +2999,12 @@
         <f t="shared" si="0"/>
         <v>6422.4871296000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>1913.058912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>1.4692129629629631E-2</v>
       </c>
@@ -1748,8 +3030,12 @@
         <f t="shared" si="0"/>
         <v>6471.962265600001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>1977.6612720000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1.4703703703703705E-2</v>
       </c>
@@ -1775,8 +3061,12 @@
         <f t="shared" si="0"/>
         <v>6510.9827616000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>2039.7795120000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1.4728009259259258E-2</v>
       </c>
@@ -1802,8 +3092,12 @@
         <f t="shared" si="0"/>
         <v>6562.4205048000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>2166.4940160000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>1.4738425925925927E-2</v>
       </c>
@@ -1829,8 +3123,12 @@
         <f t="shared" si="0"/>
         <v>6573.1010016000009</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>2228.502528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1.4750000000000001E-2</v>
       </c>
@@ -1856,8 +3154,12 @@
         <f t="shared" si="0"/>
         <v>6573.3600815999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>2293.1018400000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>1.4761574074074075E-2</v>
       </c>
@@ -1883,8 +3185,12 @@
         <f t="shared" si="0"/>
         <v>6564.3727488000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>2355.2078880000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>1.4774305555555556E-2</v>
       </c>
@@ -1910,8 +3216,12 @@
         <f t="shared" si="0"/>
         <v>6545.4245520000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>2417.1706800000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>1.4784722222222223E-2</v>
       </c>
@@ -1937,8 +3247,12 @@
         <f t="shared" si="0"/>
         <v>6516.3417552000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>2479.2035759999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>1.4796296296296297E-2</v>
       </c>
@@ -1964,8 +3278,12 @@
         <f t="shared" si="0"/>
         <v>6477.8933688000006</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>2543.1567120000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>1.4807870370370372E-2</v>
       </c>
@@ -1991,8 +3309,12 @@
         <f t="shared" si="0"/>
         <v>6430.2845232000009</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>2605.1164559999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>1.4819444444444446E-2</v>
       </c>
@@ -2018,8 +3340,12 @@
         <f t="shared" si="0"/>
         <v>6373.189387200001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>2664.5402640000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>1.4831018518518519E-2</v>
       </c>
@@ -2045,8 +3371,12 @@
         <f t="shared" si="0"/>
         <v>6306.624420000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>2724.375552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>1.4842592592592593E-2</v>
       </c>
@@ -2072,8 +3402,12 @@
         <f t="shared" si="0"/>
         <v>6230.6322935999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>2786.0701199999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>1.4865740740740742E-2</v>
       </c>
@@ -2099,8 +3433,12 @@
         <f t="shared" si="0"/>
         <v>6051.2693808000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>2904.1648800000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>1.4877314814814815E-2</v>
       </c>
@@ -2126,8 +3464,12 @@
         <f t="shared" si="0"/>
         <v>5948.4856392000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>2962.8327840000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>1.4890046296296297E-2</v>
       </c>
@@ -2153,8 +3495,12 @@
         <f t="shared" si="0"/>
         <v>5893.6704072000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>2992.1514960000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>1.491087962962963E-2</v>
       </c>
@@ -2180,8 +3526,12 @@
         <f t="shared" si="0"/>
         <v>5588.3851656000006</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>3137.2362960000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>1.4923611111111111E-2</v>
       </c>
@@ -2207,8 +3557,12 @@
         <f t="shared" si="0"/>
         <v>5451.2312615999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>3190.8658559999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>1.4934027777777777E-2</v>
       </c>
@@ -2234,8 +3588,12 @@
         <f t="shared" si="0"/>
         <v>5305.498152000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>3248.6925120000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>1.4945601851851851E-2</v>
       </c>
@@ -2261,8 +3619,12 @@
         <f t="shared" si="0"/>
         <v>5151.2425296000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>3303.7820640000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>1.4958333333333334E-2</v>
       </c>
@@ -2288,8 +3650,12 @@
         <f t="shared" si="0"/>
         <v>4988.8615488000005</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>3360.569352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>1.4969907407407409E-2</v>
       </c>
@@ -2315,8 +3681,12 @@
         <f t="shared" si="0"/>
         <v>4818.3192432000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>3411.0289920000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>1.4993055555555556E-2</v>
       </c>
@@ -2339,11 +3709,15 @@
         <v>14612.453</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" ref="H67:H82" si="1">G67*$K$2</f>
+        <f t="shared" ref="H67:H82" si="2">G67*$K$2</f>
         <v>4453.8756744000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <f t="shared" ref="I67:I82" si="3">F67*$K$2</f>
+        <v>3519.7481040000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>1.5003472222222222E-2</v>
       </c>
@@ -2366,11 +3740,15 @@
         <v>13980.597</v>
       </c>
       <c r="H68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4261.2859656000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>3571.3934160000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>1.5015046296296295E-2</v>
       </c>
@@ -2393,11 +3771,15 @@
         <v>13325.199000000001</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4061.5206552000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>3622.7339280000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>1.5027777777777779E-2</v>
       </c>
@@ -2420,11 +3802,15 @@
         <v>12646.791999999999</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3854.7422016</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>3673.7970719999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>1.5049768518518518E-2</v>
       </c>
@@ -2447,11 +3833,15 @@
         <v>11226.174999999999</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3421.7381399999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>3772.8936480000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>1.5062500000000001E-2</v>
       </c>
@@ -2474,11 +3864,15 @@
         <v>10485.125</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3195.8661000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>3820.7015280000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>1.5072916666666667E-2</v>
       </c>
@@ -2501,11 +3895,15 @@
         <v>9726.6740000000009</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2964.6902352000006</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>3869.9694000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>1.5097222222222224E-2</v>
       </c>
@@ -2528,11 +3926,15 @@
         <v>8153.3540000000003</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2485.1422992000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>3961.8787920000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>1.5107638888888889E-2</v>
       </c>
@@ -2555,11 +3957,15 @@
         <v>7343.19</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2238.2043119999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>4006.4253120000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>1.5119212962962963E-2</v>
       </c>
@@ -2582,11 +3988,15 @@
         <v>6516.72</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1986.2962560000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>4049.1186480000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>1.5131944444444446E-2</v>
       </c>
@@ -2609,11 +4019,15 @@
         <v>5675.0529999999999</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1729.7561544</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>4092.9854640000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>1.514351851851852E-2</v>
       </c>
@@ -2636,11 +4050,15 @@
         <v>4821.6180000000004</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1469.6291664000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>4134.0603120000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>1.5153935185185185E-2</v>
       </c>
@@ -2663,11 +4081,15 @@
         <v>3957.288</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1206.1813824000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>4177.1529360000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>1.5166666666666669E-2</v>
       </c>
@@ -2690,11 +4112,15 @@
         <v>3083.6129999999998</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>939.88524240000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>4215.2224560000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>1.5177083333333332E-2</v>
       </c>
@@ -2717,11 +4143,15 @@
         <v>2200.23</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>670.63010400000007</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>4255.303656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>1.5190972222222222E-2</v>
       </c>
@@ -2744,8 +4174,15 @@
         <v>1307.4349999999999</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>398.50618800000001</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="3"/>
+        <v>4295.1714959999999</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2778,6 +4215,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -6709,7 +8147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF16F03-F53C-4B19-AFC3-4E4072AD9147}">
   <dimension ref="A1:D320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
